--- a/similarities/split_global/harmonic_similarity_timestamps_380.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_380.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,138 +484,152 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D:7']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'F:7']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:03.779977', '0:01:15.482834')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:12.240000', '0:00:15.400000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-263#t=63.779977']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=12.24']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>jaah_60</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>jaah_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:min7', 'G:7', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Bb:min7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:24.870000', '0:00:28.980000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+          <t>('0:00:30.750000', '0:00:34.470000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-60#t=24.87</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-2#t=30.75</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
+          <t>jaah_27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A', 'F#:min', 'B:min']]</t>
+          <t>['D', 'E:min7', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:20.240000')]</t>
+          <t>('0:01:05.900000', '0:01:13.560000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:17.670317', '0:00:31.045011')]</t>
+          <t>('0:00:06.700000', '0:00:16.050000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=10.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=65.9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-173#t=17.670317']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=6.7</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -624,550 +638,572 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['C', 'F', 'C', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:20.801000', '0:00:27.165000')]</t>
+          <t>('0:01:43.520929', '0:01:49.476848')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:12.921927', '0:00:21.908049')]</t>
+          <t>('0:00:59.220000', '0:01:11.120000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-273#t=20.801']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:04:43.300000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db'], ['Ab', 'Db', 'Ab']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F'], ['C', 'F', 'C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:58.640000', '0:02:03.070000'), ('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:41.849092', '0:01:46.934263'), ('0:01:43.520929', '0:01:48.664149')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=101.849092', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_198</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
+          <t>['D:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
+          <t>('0:00:18.965464', '0:00:23.342426')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_132</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C#:min', 'G#:7', 'C#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
+          <t>('0:00:24.282834', '0:00:31.446190')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+          <t>('0:00:48.240000', '0:00:55.680000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=24.282834</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=48.24</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['D', 'G', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F:maj/A', 'A#:maj/D', 'D#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:20.760000')]</t>
+          <t>('0:00:12.852267', '0:00:15.522562')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+          <t>('0:03:54.420000', '0:03:57.900000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=12.852267</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=234.42</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:min7', 'A:7', 'D']]</t>
+          <t>['A:min7', 'D:7', 'G:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['C:min7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:32.032000', '0:00:39.805000')]</t>
+          <t>('0:00:18.010000', '0:00:21.490000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:41.520000', '0:00:46.940000')]</t>
+          <t>('0:00:02.600000', '0:00:03.800000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=32.032']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=18.01</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=41.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=2.6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D/3'], ['C:maj', 'D:maj', 'G:maj']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B'], ['A', 'B', 'E']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:08.669000', '0:01:14.662000'), ('0:00:12.446000', '0:00:16.277000')]</t>
+          <t>('0:01:00.436303', '0:01:14.066417')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:58.916720', '0:01:03.328512'), ('0:00:50.046698', '0:00:55.352457')]</t>
+          <t>('0:00:08.900000', '0:00:11.680000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=68.669', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=60.436303</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=58.91672', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=50.046698']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:12.300000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:08.350000', '0:00:11.880000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=9.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min', 'F:maj', 'A#:min'], ['G#:7', 'C#:maj', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['A:7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min'], ['A#:7', 'D#', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:30.240000', '0:00:38.500000'), ('0:00:15.600000', '0:00:24.080000'), ('0:00:43.040000', '0:00:49.380000'), ('0:00:41.320000', '0:00:46.640000')]</t>
+          <t>('0:00:02.900000', '0:00:11.630000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.940000', '0:00:27.520000'), ('0:00:07.220000', '0:00:10.760000'), ('0:00:11.820000', '0:00:18.540000'), ('0:00:33.680000', '0:00:36'), ('0:00:38.200000', '0:00:39.980000')]</t>
+          <t>('0:00:52.580000', '0:00:58.920000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=30.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=43.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=33.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.2']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=52.58</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Bb:7']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C', 'D:7/C']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:23.460000', '0:01:31.460000')]</t>
+          <t>('0:00:08.740000', '0:00:24.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:04.420000')]</t>
+          <t>('0:00:20.560000', '0:00:30.380000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
+          <t>('0:00:06.980000', '0:00:21.920000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+          <t>('0:00:23.260000', '0:00:33.620000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=66.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=101.06']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
